--- a/svmvol.xlsx
+++ b/svmvol.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DEMO\Downloads\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DEMO\Documents\GitHub\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{300F3266-C13E-4060-96BA-AD9D29CFC094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C173642C-F643-4997-8CD6-E3EA7059B587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14160" xr2:uid="{2531C917-796F-4956-BBA0-02438E81E71E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>SVM_Name</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>sql1_log_dest</t>
+  </si>
+  <si>
+    <t>NetApp</t>
   </si>
 </sst>
 </file>
@@ -415,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E73044-18BC-4795-B7C6-120631DDC2E8}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,6 +486,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
